--- a/earlywarning-pom/earlywarning-config/src/baf-instances/55_Inst_Workspace_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/55_Inst_Workspace_RETAIL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco.calabretta\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="20610" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="2040" yWindow="0" windowWidth="20610" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
   <si>
     <t>Workspace</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>RETAIL_TARGET</t>
+  </si>
+  <si>
+    <t>BL_RETAIL_000001</t>
+  </si>
+  <si>
+    <t>WS_IT_RETAIL-BL_RETAIL_000001</t>
   </si>
 </sst>
 </file>
@@ -950,7 +956,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,16 +1094,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="6" width="19.5703125" customWidth="1"/>
@@ -1133,6 +1139,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1144,7 +1167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1153,7 +1176,7 @@
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.3">

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/55_Inst_Workspace_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/55_Inst_Workspace_RETAIL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -223,13 +223,13 @@
     <t>BL_RETAIL_000001</t>
   </si>
   <si>
-    <t>WS_IT_RETAIL-BL_RETAIL_000001</t>
+    <t>WS_IT_RETAIL_BL_RETAIL_000001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -956,7 +956,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,14 +1097,13 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="2" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="6" width="19.5703125" customWidth="1"/>
   </cols>
